--- a/pion_qT/expdata/4001.xlsx
+++ b/pion_qT/expdata/4001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninacao/Desktop/fitpack/database/pion_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D89B1D-D654-B44C-A1C4-BD84A59A1EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87094298-90C2-2A49-9E71-5A24CD55724E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{E6E3B163-33F6-E044-A176-E8F274F71224}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>number</t>
   </si>
   <si>
-    <t>d2sigma/dpTdm (val)</t>
+    <t>d2sigma/dpTdm(val)</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:S156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,7 +645,7 @@
       </c>
       <c r="S1" s="17"/>
     </row>
-    <row r="2" spans="1:19" ht="34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
